--- a/web-platform_08_21_dev/static/media/data/geo.xlsx
+++ b/web-platform_08_21_dev/static/media/data/geo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,614 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:49:27</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52.14474</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.21812</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:49:09</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52.14474</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.21812</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:49:07</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52.14474</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61.21812</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:48:37</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52.14472</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.21812</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:48:21</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52.1447</v>
+      </c>
+      <c r="D6" t="n">
+        <v>61.21828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:48:14</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>52.1447</v>
+      </c>
+      <c r="D7" t="n">
+        <v>61.21835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:47:24</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>52.14468</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.21832</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:52</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>52.14468</v>
+      </c>
+      <c r="D9" t="n">
+        <v>61.21832</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:45</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>52.14468</v>
+      </c>
+      <c r="D10" t="n">
+        <v>61.21832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:15</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>52.14465</v>
+      </c>
+      <c r="D11" t="n">
+        <v>61.21818</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:13</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>52.14465</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61.21813</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:11</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>52.14466</v>
+      </c>
+      <c r="D13" t="n">
+        <v>61.21808</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:09</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>52.14469</v>
+      </c>
+      <c r="D14" t="n">
+        <v>61.21804</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:08</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>52.14472</v>
+      </c>
+      <c r="D15" t="n">
+        <v>61.21803</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:07</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>52.14474</v>
+      </c>
+      <c r="D16" t="n">
+        <v>61.21804</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:06</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>52.14477</v>
+      </c>
+      <c r="D17" t="n">
+        <v>61.21808</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:05</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>52.14479</v>
+      </c>
+      <c r="D18" t="n">
+        <v>61.21813</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:02</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>52.14484</v>
+      </c>
+      <c r="D19" t="n">
+        <v>61.21831</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:01</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>52.14486</v>
+      </c>
+      <c r="D20" t="n">
+        <v>61.21836</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:43:00</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>52.1449</v>
+      </c>
+      <c r="D21" t="n">
+        <v>61.21839</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:59</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>52.14495</v>
+      </c>
+      <c r="D22" t="n">
+        <v>61.21841</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:56</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>52.14507</v>
+      </c>
+      <c r="D23" t="n">
+        <v>61.21842</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:54</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>52.14518</v>
+      </c>
+      <c r="D24" t="n">
+        <v>61.21847</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:52</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>52.14531</v>
+      </c>
+      <c r="D25" t="n">
+        <v>61.21853</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:50</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>52.14544</v>
+      </c>
+      <c r="D26" t="n">
+        <v>61.21861</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:49</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>52.1455</v>
+      </c>
+      <c r="D27" t="n">
+        <v>61.21865</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:47</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>52.14564</v>
+      </c>
+      <c r="D28" t="n">
+        <v>61.21876</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:45</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>52.14577</v>
+      </c>
+      <c r="D29" t="n">
+        <v>61.21888</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:43</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>52.1459</v>
+      </c>
+      <c r="D30" t="n">
+        <v>61.21898</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:41</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>52.14604</v>
+      </c>
+      <c r="D31" t="n">
+        <v>61.21907</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:39</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>52.14618</v>
+      </c>
+      <c r="D32" t="n">
+        <v>61.21916</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:37</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>52.14632</v>
+      </c>
+      <c r="D33" t="n">
+        <v>61.21924</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:35</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>52.14645</v>
+      </c>
+      <c r="D34" t="n">
+        <v>61.2193</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:34</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>52.14652</v>
+      </c>
+      <c r="D35" t="n">
+        <v>61.21932</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:32</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>52.14664</v>
+      </c>
+      <c r="D36" t="n">
+        <v>61.21937</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:30</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>52.14677</v>
+      </c>
+      <c r="D37" t="n">
+        <v>61.21945</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>21</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:28</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>52.14689</v>
+      </c>
+      <c r="D38" t="n">
+        <v>61.21956</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>21</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021-08-23 13:42:26</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>52.14702</v>
+      </c>
+      <c r="D39" t="n">
+        <v>61.2197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/web-platform_08_21_dev/static/media/data/geo.xlsx
+++ b/web-platform_08_21_dev/static/media/data/geo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,610 +470,1586 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-08-23 13:49:27</t>
+          <t>2021-08-24 15:42:19</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52.14474</v>
+        <v>52.1732</v>
       </c>
       <c r="D2" t="n">
-        <v>61.21812</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-08-23 13:49:09</t>
+          <t>2021-08-24 15:42:04</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52.14474</v>
+        <v>52.1732</v>
       </c>
       <c r="D3" t="n">
-        <v>61.21812</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-08-23 13:49:07</t>
+          <t>2021-08-24 15:41:49</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52.14474</v>
+        <v>52.1732</v>
       </c>
       <c r="D4" t="n">
-        <v>61.21812</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-08-23 13:48:37</t>
+          <t>2021-08-24 15:41:34</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.14472</v>
+        <v>52.1732</v>
       </c>
       <c r="D5" t="n">
-        <v>61.21812</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-08-23 13:48:21</t>
+          <t>2021-08-24 15:41:18</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52.1447</v>
+        <v>52.1732</v>
       </c>
       <c r="D6" t="n">
-        <v>61.21828</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-08-23 13:48:14</t>
+          <t>2021-08-24 15:41:03</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52.1447</v>
+        <v>52.1732</v>
       </c>
       <c r="D7" t="n">
-        <v>61.21835</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-08-23 13:47:24</t>
+          <t>2021-08-24 15:40:48</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52.14468</v>
+        <v>52.1732</v>
       </c>
       <c r="D8" t="n">
-        <v>61.21832</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:52</t>
+          <t>2021-08-24 15:40:33</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52.14468</v>
+        <v>52.1732</v>
       </c>
       <c r="D9" t="n">
-        <v>61.21832</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:45</t>
+          <t>2021-08-24 15:40:18</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>52.14468</v>
+        <v>52.1732</v>
       </c>
       <c r="D10" t="n">
-        <v>61.21832</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:15</t>
+          <t>2021-08-24 15:40:03</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52.14465</v>
+        <v>52.1732</v>
       </c>
       <c r="D11" t="n">
-        <v>61.21818</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:13</t>
+          <t>2021-08-24 15:39:48</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.14465</v>
+        <v>52.1732</v>
       </c>
       <c r="D12" t="n">
-        <v>61.21813</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:11</t>
+          <t>2021-08-24 15:39:33</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.14466</v>
+        <v>52.1732</v>
       </c>
       <c r="D13" t="n">
-        <v>61.21808</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:09</t>
+          <t>2021-08-24 15:39:18</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52.14469</v>
+        <v>52.1732</v>
       </c>
       <c r="D14" t="n">
-        <v>61.21804</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:08</t>
+          <t>2021-08-24 15:39:03</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.14472</v>
+        <v>52.1732</v>
       </c>
       <c r="D15" t="n">
-        <v>61.21803</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:07</t>
+          <t>2021-08-24 15:38:48</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.14474</v>
+        <v>52.1732</v>
       </c>
       <c r="D16" t="n">
-        <v>61.21804</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:06</t>
+          <t>2021-08-24 15:38:33</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>52.14477</v>
+        <v>52.1732</v>
       </c>
       <c r="D17" t="n">
-        <v>61.21808</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:05</t>
+          <t>2021-08-24 15:38:18</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>52.14479</v>
+        <v>52.1732</v>
       </c>
       <c r="D18" t="n">
-        <v>61.21813</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:02</t>
+          <t>2021-08-24 15:38:03</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>52.14484</v>
+        <v>52.1732</v>
       </c>
       <c r="D19" t="n">
-        <v>61.21831</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:01</t>
+          <t>2021-08-24 15:37:48</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52.14486</v>
+        <v>52.1732</v>
       </c>
       <c r="D20" t="n">
-        <v>61.21836</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-08-23 13:43:00</t>
+          <t>2021-08-24 15:37:33</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>52.1449</v>
+        <v>52.1732</v>
       </c>
       <c r="D21" t="n">
-        <v>61.21839</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:59</t>
+          <t>2021-08-24 15:37:18</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>52.14495</v>
+        <v>52.1732</v>
       </c>
       <c r="D22" t="n">
-        <v>61.21841</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:56</t>
+          <t>2021-08-24 15:37:03</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>52.14507</v>
+        <v>52.1732</v>
       </c>
       <c r="D23" t="n">
-        <v>61.21842</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:54</t>
+          <t>2021-08-24 15:36:48</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>52.14518</v>
+        <v>52.1732</v>
       </c>
       <c r="D24" t="n">
-        <v>61.21847</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:52</t>
+          <t>2021-08-24 15:36:33</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>52.14531</v>
+        <v>52.1732</v>
       </c>
       <c r="D25" t="n">
-        <v>61.21853</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:50</t>
+          <t>2021-08-24 15:36:18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>52.14544</v>
+        <v>52.1732</v>
       </c>
       <c r="D26" t="n">
-        <v>61.21861</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:49</t>
+          <t>2021-08-24 15:36:03</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>52.1455</v>
+        <v>52.1732</v>
       </c>
       <c r="D27" t="n">
-        <v>61.21865</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:47</t>
+          <t>2021-08-24 15:35:48</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>52.14564</v>
+        <v>52.1732</v>
       </c>
       <c r="D28" t="n">
-        <v>61.21876</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:45</t>
+          <t>2021-08-24 15:35:33</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>52.14577</v>
+        <v>52.1732</v>
       </c>
       <c r="D29" t="n">
-        <v>61.21888</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:43</t>
+          <t>2021-08-24 15:35:18</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52.1459</v>
+        <v>52.1732</v>
       </c>
       <c r="D30" t="n">
-        <v>61.21898</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:41</t>
+          <t>2021-08-24 15:35:03</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>52.14604</v>
+        <v>52.1732</v>
       </c>
       <c r="D31" t="n">
-        <v>61.21907</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:39</t>
+          <t>2021-08-24 15:34:48</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>52.14618</v>
+        <v>52.1732</v>
       </c>
       <c r="D32" t="n">
-        <v>61.21916</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:37</t>
+          <t>2021-08-24 15:34:33</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>52.14632</v>
+        <v>52.1732</v>
       </c>
       <c r="D33" t="n">
-        <v>61.21924</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:35</t>
+          <t>2021-08-24 15:34:18</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>52.14645</v>
+        <v>52.1732</v>
       </c>
       <c r="D34" t="n">
-        <v>61.2193</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:34</t>
+          <t>2021-08-24 15:34:03</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>52.14652</v>
+        <v>52.1732</v>
       </c>
       <c r="D35" t="n">
-        <v>61.21932</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:32</t>
+          <t>2021-08-24 15:33:48</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>52.14664</v>
+        <v>52.1732</v>
       </c>
       <c r="D36" t="n">
-        <v>61.21937</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:30</t>
+          <t>2021-08-24 15:33:32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>52.14677</v>
+        <v>52.1732</v>
       </c>
       <c r="D37" t="n">
-        <v>61.21945</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:28</t>
+          <t>2021-08-24 15:33:17</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>52.14689</v>
+        <v>52.1732</v>
       </c>
       <c r="D38" t="n">
-        <v>61.21956</v>
+        <v>61.2526</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-08-23 13:42:26</t>
+          <t>2021-08-24 15:33:02</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>52.14702</v>
+        <v>52.1732</v>
       </c>
       <c r="D39" t="n">
-        <v>61.2197</v>
+        <v>61.2526</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:42:19</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D40" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:41:49</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D41" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:41:18</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D42" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:40:48</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D43" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:40:18</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D44" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:39:48</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D45" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:39:18</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D46" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:38:48</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D47" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:38:18</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D48" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:37:48</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D49" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:37:18</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D50" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:36:48</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D51" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:36:18</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D52" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:35:48</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D53" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:35:18</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D54" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:34:48</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D55" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:34:18</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D56" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:33:48</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D57" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:33:18</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D58" t="n">
+        <v>61.2797</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:42:31</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D59" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>13</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:42:29</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D60" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>13</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:42:14</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D61" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>13</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:41:59</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D62" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>13</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:41:44</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D63" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>13</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:41:29</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D64" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>13</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:41:14</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D65" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>13</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:40:59</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D66" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>13</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:40:48</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D67" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>13</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:40:33</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D68" t="n">
+        <v>61.2264</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>13</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:40:18</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>52.156</v>
+      </c>
+      <c r="D69" t="n">
+        <v>61.2265</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>13</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:40:17</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D70" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>13</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:40:06</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D71" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>13</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:39:55</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D72" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>13</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:39:40</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D73" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:39:27</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D74" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>13</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:39:15</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D75" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>13</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:39:00</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D76" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>13</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:38:45</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D77" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>13</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:38:30</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D78" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>13</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:38:15</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D79" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>13</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:38:00</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D80" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>13</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:37:45</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D81" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>13</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:37:30</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D82" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>13</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:37:15</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D83" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>13</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:37:00</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D84" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>13</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:36:45</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D85" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>13</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:36:30</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D86" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>13</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:36:15</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D87" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>13</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:36:00</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D88" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>13</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:35:45</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D89" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>13</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:35:30</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D90" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>13</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:35:15</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D91" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>13</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:34:59</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D92" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>13</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:34:44</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D93" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>13</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:34:29</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D94" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>13</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:34:14</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D95" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>13</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:33:59</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D96" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>13</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:33:44</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D97" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>13</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:33:29</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D98" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>13</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:33:14</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D99" t="n">
+        <v>61.2268</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>13</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2021-08-24 15:32:59</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>52.1555</v>
+      </c>
+      <c r="D100" t="n">
+        <v>61.2268</v>
       </c>
     </row>
   </sheetData>

--- a/web-platform_08_21_dev/static/media/data/geo.xlsx
+++ b/web-platform_08_21_dev/static/media/data/geo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,1586 +470,2098 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-08-24 15:42:19</t>
+          <t>2021-08-25 15:09:29</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52.1732</v>
+        <v>52.14144</v>
       </c>
       <c r="D2" t="n">
-        <v>61.2526</v>
+        <v>61.22338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-08-24 15:42:04</t>
+          <t>2021-08-25 15:09:01</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52.1732</v>
+        <v>52.14141</v>
       </c>
       <c r="D3" t="n">
-        <v>61.2526</v>
+        <v>61.22331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:49</t>
+          <t>2021-08-25 15:08:40</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52.1732</v>
+        <v>52.14141</v>
       </c>
       <c r="D4" t="n">
-        <v>61.2526</v>
+        <v>61.22331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:34</t>
+          <t>2021-08-25 15:08:32</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.1732</v>
+        <v>52.14141</v>
       </c>
       <c r="D5" t="n">
-        <v>61.2526</v>
+        <v>61.22331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:18</t>
+          <t>2021-08-25 15:08:27</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52.1732</v>
+        <v>52.14141</v>
       </c>
       <c r="D6" t="n">
-        <v>61.2526</v>
+        <v>61.22332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:03</t>
+          <t>2021-08-25 15:08:24</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52.1732</v>
+        <v>52.1414</v>
       </c>
       <c r="D7" t="n">
-        <v>61.2526</v>
+        <v>61.22331</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:48</t>
+          <t>2021-08-25 15:08:21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52.1732</v>
+        <v>52.14137</v>
       </c>
       <c r="D8" t="n">
-        <v>61.2526</v>
+        <v>61.22322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:33</t>
+          <t>2021-08-25 15:08:18</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>52.1732</v>
+        <v>52.14131</v>
       </c>
       <c r="D9" t="n">
-        <v>61.2526</v>
+        <v>61.22318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:18</t>
+          <t>2021-08-25 15:08:17</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>52.1732</v>
+        <v>52.14128</v>
       </c>
       <c r="D10" t="n">
-        <v>61.2526</v>
+        <v>61.22317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:03</t>
+          <t>2021-08-25 15:08:15</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52.1732</v>
+        <v>52.14121</v>
       </c>
       <c r="D11" t="n">
-        <v>61.2526</v>
+        <v>61.22321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:48</t>
+          <t>2021-08-25 15:08:14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.1732</v>
+        <v>52.14119</v>
       </c>
       <c r="D12" t="n">
-        <v>61.2526</v>
+        <v>61.22325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:33</t>
+          <t>2021-08-25 15:08:12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>52.1732</v>
+        <v>52.14116</v>
       </c>
       <c r="D13" t="n">
-        <v>61.2526</v>
+        <v>61.22334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:18</t>
+          <t>2021-08-25 15:08:11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>52.1732</v>
+        <v>52.14115</v>
       </c>
       <c r="D14" t="n">
-        <v>61.2526</v>
+        <v>61.2234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:03</t>
+          <t>2021-08-25 15:08:09</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.1732</v>
+        <v>52.14116</v>
       </c>
       <c r="D15" t="n">
-        <v>61.2526</v>
+        <v>61.22351</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:48</t>
+          <t>2021-08-25 15:08:07</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.1732</v>
+        <v>52.14119</v>
       </c>
       <c r="D16" t="n">
-        <v>61.2526</v>
+        <v>61.22364</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:33</t>
+          <t>2021-08-25 15:08:05</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>52.1732</v>
+        <v>52.14125</v>
       </c>
       <c r="D17" t="n">
-        <v>61.2526</v>
+        <v>61.22375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:18</t>
+          <t>2021-08-25 15:08:03</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>52.1732</v>
+        <v>52.14132</v>
       </c>
       <c r="D18" t="n">
-        <v>61.2526</v>
+        <v>61.22386</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:03</t>
+          <t>2021-08-25 15:08:01</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>52.1732</v>
+        <v>52.14137</v>
       </c>
       <c r="D19" t="n">
-        <v>61.2526</v>
+        <v>61.22399</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:48</t>
+          <t>2021-08-25 15:07:59</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52.1732</v>
+        <v>52.14142</v>
       </c>
       <c r="D20" t="n">
-        <v>61.2526</v>
+        <v>61.22413</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:33</t>
+          <t>2021-08-25 15:07:57</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>52.1732</v>
+        <v>52.14147</v>
       </c>
       <c r="D21" t="n">
-        <v>61.2526</v>
+        <v>61.22427</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:18</t>
+          <t>2021-08-25 15:07:55</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>52.1732</v>
+        <v>52.14152</v>
       </c>
       <c r="D22" t="n">
-        <v>61.2526</v>
+        <v>61.22442</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:03</t>
+          <t>2021-08-25 15:07:53</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>52.1732</v>
+        <v>52.14157</v>
       </c>
       <c r="D23" t="n">
-        <v>61.2526</v>
+        <v>61.22456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:48</t>
+          <t>2021-08-25 15:07:50</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>52.1732</v>
+        <v>52.14163</v>
       </c>
       <c r="D24" t="n">
-        <v>61.2526</v>
+        <v>61.22474</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:33</t>
+          <t>2021-08-25 15:07:48</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>52.1732</v>
+        <v>52.14167</v>
       </c>
       <c r="D25" t="n">
-        <v>61.2526</v>
+        <v>61.22486</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:18</t>
+          <t>2021-08-25 15:07:46</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>52.1732</v>
+        <v>52.14173</v>
       </c>
       <c r="D26" t="n">
-        <v>61.2526</v>
+        <v>61.22499</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:03</t>
+          <t>2021-08-25 15:07:44</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>52.1732</v>
+        <v>52.14177</v>
       </c>
       <c r="D27" t="n">
-        <v>61.2526</v>
+        <v>61.22511</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:48</t>
+          <t>2021-08-25 15:07:43</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>52.1732</v>
+        <v>52.14179</v>
       </c>
       <c r="D28" t="n">
-        <v>61.2526</v>
+        <v>61.22517</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:33</t>
+          <t>2021-08-25 15:07:41</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>52.1732</v>
+        <v>52.14185</v>
       </c>
       <c r="D29" t="n">
-        <v>61.2526</v>
+        <v>61.22529</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:18</t>
+          <t>2021-08-25 15:07:39</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52.1732</v>
+        <v>52.14191</v>
       </c>
       <c r="D30" t="n">
-        <v>61.2526</v>
+        <v>61.22542</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:03</t>
+          <t>2021-08-25 15:07:37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>52.1732</v>
+        <v>52.14197</v>
       </c>
       <c r="D31" t="n">
-        <v>61.2526</v>
+        <v>61.22557</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:48</t>
+          <t>2021-08-25 15:07:35</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>52.1732</v>
+        <v>52.14204</v>
       </c>
       <c r="D32" t="n">
-        <v>61.2526</v>
+        <v>61.22571</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:33</t>
+          <t>2021-08-25 15:07:33</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>52.1732</v>
+        <v>52.14211</v>
       </c>
       <c r="D33" t="n">
-        <v>61.2526</v>
+        <v>61.22588</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:18</t>
+          <t>2021-08-25 15:07:31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>52.1732</v>
+        <v>52.14218</v>
       </c>
       <c r="D34" t="n">
-        <v>61.2526</v>
+        <v>61.22606</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:03</t>
+          <t>2021-08-25 15:07:29</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>52.1732</v>
+        <v>52.14225</v>
       </c>
       <c r="D35" t="n">
-        <v>61.2526</v>
+        <v>61.22623</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:48</t>
+          <t>2021-08-25 15:07:27</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>52.1732</v>
+        <v>52.14231</v>
       </c>
       <c r="D36" t="n">
-        <v>61.2526</v>
+        <v>61.22641</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:32</t>
+          <t>2021-08-25 15:07:25</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>52.1732</v>
+        <v>52.14237</v>
       </c>
       <c r="D37" t="n">
-        <v>61.2526</v>
+        <v>61.22658</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:17</t>
+          <t>2021-08-25 15:07:23</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>52.1732</v>
+        <v>52.14243</v>
       </c>
       <c r="D38" t="n">
-        <v>61.2526</v>
+        <v>61.22677</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:02</t>
+          <t>2021-08-25 15:07:21</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>52.1732</v>
+        <v>52.14253</v>
       </c>
       <c r="D39" t="n">
-        <v>61.2526</v>
+        <v>61.22696</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-08-24 15:42:19</t>
+          <t>2021-08-25 15:07:19</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>52.1416</v>
+        <v>52.1426</v>
       </c>
       <c r="D40" t="n">
-        <v>61.2797</v>
+        <v>61.22714</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:49</t>
+          <t>2021-08-25 15:07:17</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>52.1416</v>
+        <v>52.14267</v>
       </c>
       <c r="D41" t="n">
-        <v>61.2797</v>
+        <v>61.2273</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:18</t>
+          <t>2021-08-25 15:07:15</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>52.1416</v>
+        <v>52.14275</v>
       </c>
       <c r="D42" t="n">
-        <v>61.2797</v>
+        <v>61.22747</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:48</t>
+          <t>2021-08-25 15:07:13</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>52.1416</v>
+        <v>52.14281</v>
       </c>
       <c r="D43" t="n">
-        <v>61.2797</v>
+        <v>61.22763</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:18</t>
+          <t>2021-08-25 15:07:11</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>52.1416</v>
+        <v>52.14286</v>
       </c>
       <c r="D44" t="n">
-        <v>61.2797</v>
+        <v>61.22778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:48</t>
+          <t>2021-08-25 15:07:09</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>52.1416</v>
+        <v>52.14292</v>
       </c>
       <c r="D45" t="n">
-        <v>61.2797</v>
+        <v>61.22792</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:18</t>
+          <t>2021-08-25 15:07:07</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>52.1416</v>
+        <v>52.14298</v>
       </c>
       <c r="D46" t="n">
-        <v>61.2797</v>
+        <v>61.22805</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:48</t>
+          <t>2021-08-25 15:07:05</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>52.1416</v>
+        <v>52.14305</v>
       </c>
       <c r="D47" t="n">
-        <v>61.2797</v>
+        <v>61.2282</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:18</t>
+          <t>2021-08-25 15:07:03</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>52.1416</v>
+        <v>52.14314</v>
       </c>
       <c r="D48" t="n">
-        <v>61.2797</v>
+        <v>61.22837</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:48</t>
+          <t>2021-08-25 15:07:00</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>52.1416</v>
+        <v>52.14321</v>
       </c>
       <c r="D49" t="n">
-        <v>61.2797</v>
+        <v>61.22855</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:18</t>
+          <t>2021-08-25 15:06:57</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>52.1416</v>
+        <v>52.14329</v>
       </c>
       <c r="D50" t="n">
-        <v>61.2797</v>
+        <v>61.22872</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:48</t>
+          <t>2021-08-25 15:06:56</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>52.1416</v>
+        <v>52.14332</v>
       </c>
       <c r="D51" t="n">
-        <v>61.2797</v>
+        <v>61.22877</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:18</t>
+          <t>2021-08-25 15:06:53</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>52.1416</v>
+        <v>52.14339</v>
       </c>
       <c r="D52" t="n">
-        <v>61.2797</v>
+        <v>61.22889</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:48</t>
+          <t>2021-08-25 15:06:50</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>52.1416</v>
+        <v>52.14344</v>
       </c>
       <c r="D53" t="n">
-        <v>61.2797</v>
+        <v>61.229</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:18</t>
+          <t>2021-08-25 15:06:46</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>52.1416</v>
+        <v>52.14352</v>
       </c>
       <c r="D54" t="n">
-        <v>61.2797</v>
+        <v>61.22914</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:48</t>
+          <t>2021-08-25 15:06:42</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>52.1416</v>
+        <v>52.1436</v>
       </c>
       <c r="D55" t="n">
-        <v>61.2797</v>
+        <v>61.22929</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:18</t>
+          <t>2021-08-25 15:06:37</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>52.1416</v>
+        <v>52.14366</v>
       </c>
       <c r="D56" t="n">
-        <v>61.2797</v>
+        <v>61.2294</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:48</t>
+          <t>2021-08-25 15:06:32</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>52.1416</v>
+        <v>52.14368</v>
       </c>
       <c r="D57" t="n">
-        <v>61.2797</v>
+        <v>61.22945</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:18</t>
+          <t>2021-08-25 15:06:28</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>52.1416</v>
+        <v>52.14368</v>
       </c>
       <c r="D58" t="n">
-        <v>61.2797</v>
+        <v>61.22948</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021-08-24 15:42:31</t>
+          <t>2021-08-25 15:06:09</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>52.156</v>
+        <v>52.14368</v>
       </c>
       <c r="D59" t="n">
-        <v>61.2264</v>
+        <v>61.22948</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021-08-24 15:42:29</t>
+          <t>2021-08-25 15:06:08</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>52.156</v>
+        <v>52.14368</v>
       </c>
       <c r="D60" t="n">
-        <v>61.2264</v>
+        <v>61.22948</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021-08-24 15:42:14</t>
+          <t>2021-08-25 15:05:39</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>52.156</v>
+        <v>52.14362</v>
       </c>
       <c r="D61" t="n">
-        <v>61.2264</v>
+        <v>61.22945</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:59</t>
+          <t>2021-08-25 15:05:37</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>52.156</v>
+        <v>52.1436</v>
       </c>
       <c r="D62" t="n">
-        <v>61.2264</v>
+        <v>61.22941</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:44</t>
+          <t>2021-08-25 15:05:35</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>52.156</v>
+        <v>52.14358</v>
       </c>
       <c r="D63" t="n">
-        <v>61.2264</v>
+        <v>61.22936</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:29</t>
+          <t>2021-08-25 15:05:33</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>52.156</v>
+        <v>52.14355</v>
       </c>
       <c r="D64" t="n">
-        <v>61.2264</v>
+        <v>61.22935</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021-08-24 15:41:14</t>
+          <t>2021-08-25 15:05:29</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>52.156</v>
+        <v>52.14349</v>
       </c>
       <c r="D65" t="n">
-        <v>61.2264</v>
+        <v>61.2294</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:59</t>
+          <t>2021-08-25 15:05:28</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>52.156</v>
+        <v>52.14348</v>
       </c>
       <c r="D66" t="n">
-        <v>61.2264</v>
+        <v>61.2294</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:48</t>
+          <t>2021-08-25 15:05:22</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>52.156</v>
+        <v>52.14351</v>
       </c>
       <c r="D67" t="n">
-        <v>61.2264</v>
+        <v>61.22943</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:33</t>
+          <t>2021-08-25 15:05:19</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>52.156</v>
+        <v>52.14356</v>
       </c>
       <c r="D68" t="n">
-        <v>61.2264</v>
+        <v>61.22944</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:18</t>
+          <t>2021-08-25 15:05:17</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>52.156</v>
+        <v>52.14359</v>
       </c>
       <c r="D69" t="n">
-        <v>61.2265</v>
+        <v>61.22943</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:17</t>
+          <t>2021-08-25 15:05:12</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>52.1555</v>
+        <v>52.14364</v>
       </c>
       <c r="D70" t="n">
-        <v>61.2268</v>
+        <v>61.22937</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021-08-24 15:40:06</t>
+          <t>2021-08-25 15:05:03</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>52.1555</v>
+        <v>52.14366</v>
       </c>
       <c r="D71" t="n">
-        <v>61.2268</v>
+        <v>61.22925</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:55</t>
+          <t>2021-08-25 15:04:36</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>52.1555</v>
+        <v>52.14357</v>
       </c>
       <c r="D72" t="n">
-        <v>61.2268</v>
+        <v>61.22905</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:40</t>
+          <t>2021-08-25 15:04:35</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>52.1555</v>
+        <v>52.14355</v>
       </c>
       <c r="D73" t="n">
-        <v>61.2268</v>
+        <v>61.22902</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:27</t>
+          <t>2021-08-25 15:04:31</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>52.1555</v>
+        <v>52.14348</v>
       </c>
       <c r="D74" t="n">
-        <v>61.2268</v>
+        <v>61.2289</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:15</t>
+          <t>2021-08-25 15:04:28</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>52.1555</v>
+        <v>52.14339</v>
       </c>
       <c r="D75" t="n">
-        <v>61.2268</v>
+        <v>61.22877</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021-08-24 15:39:00</t>
+          <t>2021-08-25 15:04:25</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>52.1555</v>
+        <v>52.14331</v>
       </c>
       <c r="D76" t="n">
-        <v>61.2268</v>
+        <v>61.22862</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:45</t>
+          <t>2021-08-25 15:04:22</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>52.1555</v>
+        <v>52.14323</v>
       </c>
       <c r="D77" t="n">
-        <v>61.2268</v>
+        <v>61.22848</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:30</t>
+          <t>2021-08-25 15:04:20</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>52.1555</v>
+        <v>52.14317</v>
       </c>
       <c r="D78" t="n">
-        <v>61.2268</v>
+        <v>61.22836</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:15</t>
+          <t>2021-08-25 15:04:18</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>52.1555</v>
+        <v>52.14311</v>
       </c>
       <c r="D79" t="n">
-        <v>61.2268</v>
+        <v>61.22824</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021-08-24 15:38:00</t>
+          <t>2021-08-25 15:04:16</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>52.1555</v>
+        <v>52.14306</v>
       </c>
       <c r="D80" t="n">
-        <v>61.2268</v>
+        <v>61.22811</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:45</t>
+          <t>2021-08-25 15:04:14</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>52.1555</v>
+        <v>52.143</v>
       </c>
       <c r="D81" t="n">
-        <v>61.2268</v>
+        <v>61.22797</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:30</t>
+          <t>2021-08-25 15:04:12</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>52.1555</v>
+        <v>52.14294</v>
       </c>
       <c r="D82" t="n">
-        <v>61.2268</v>
+        <v>61.22784</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:15</t>
+          <t>2021-08-25 15:04:10</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>52.1555</v>
+        <v>52.14288</v>
       </c>
       <c r="D83" t="n">
-        <v>61.2268</v>
+        <v>61.22771</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021-08-24 15:37:00</t>
+          <t>2021-08-25 15:04:08</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>52.1555</v>
+        <v>52.14283</v>
       </c>
       <c r="D84" t="n">
-        <v>61.2268</v>
+        <v>61.22757</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:45</t>
+          <t>2021-08-25 15:04:06</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>52.1555</v>
+        <v>52.14277</v>
       </c>
       <c r="D85" t="n">
-        <v>61.2268</v>
+        <v>61.22742</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:30</t>
+          <t>2021-08-25 15:04:04</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>52.1555</v>
+        <v>52.14273</v>
       </c>
       <c r="D86" t="n">
-        <v>61.2268</v>
+        <v>61.22729</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:15</t>
+          <t>2021-08-25 15:04:02</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>52.1555</v>
+        <v>52.14267</v>
       </c>
       <c r="D87" t="n">
-        <v>61.2268</v>
+        <v>61.22717</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021-08-24 15:36:00</t>
+          <t>2021-08-25 15:03:59</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>52.1555</v>
+        <v>52.1426</v>
       </c>
       <c r="D88" t="n">
-        <v>61.2268</v>
+        <v>61.227</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:45</t>
+          <t>2021-08-25 15:03:56</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>52.1555</v>
+        <v>52.14254</v>
       </c>
       <c r="D89" t="n">
-        <v>61.2268</v>
+        <v>61.22683</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:30</t>
+          <t>2021-08-25 15:03:54</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>52.1555</v>
+        <v>52.14249</v>
       </c>
       <c r="D90" t="n">
-        <v>61.2268</v>
+        <v>61.22671</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021-08-24 15:35:15</t>
+          <t>2021-08-25 15:03:52</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>52.1555</v>
+        <v>52.14245</v>
       </c>
       <c r="D91" t="n">
-        <v>61.2268</v>
+        <v>61.22657</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:59</t>
+          <t>2021-08-25 15:03:50</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>52.1555</v>
+        <v>52.1424</v>
       </c>
       <c r="D92" t="n">
-        <v>61.2268</v>
+        <v>61.22642</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:44</t>
+          <t>2021-08-25 15:03:48</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>52.1555</v>
+        <v>52.14235</v>
       </c>
       <c r="D93" t="n">
-        <v>61.2268</v>
+        <v>61.22628</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:29</t>
+          <t>2021-08-25 15:03:46</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>52.1555</v>
+        <v>52.1423</v>
       </c>
       <c r="D94" t="n">
-        <v>61.2268</v>
+        <v>61.22614</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021-08-24 15:34:14</t>
+          <t>2021-08-25 15:03:44</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>52.1555</v>
+        <v>52.14225</v>
       </c>
       <c r="D95" t="n">
-        <v>61.2268</v>
+        <v>61.22601</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:59</t>
+          <t>2021-08-25 15:03:42</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>52.1555</v>
+        <v>52.1422</v>
       </c>
       <c r="D96" t="n">
-        <v>61.2268</v>
+        <v>61.22587</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:44</t>
+          <t>2021-08-25 15:03:40</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>52.1555</v>
+        <v>52.14212</v>
       </c>
       <c r="D97" t="n">
-        <v>61.2268</v>
+        <v>61.22574</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:29</t>
+          <t>2021-08-25 15:03:38</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>52.1555</v>
+        <v>52.14206</v>
       </c>
       <c r="D98" t="n">
-        <v>61.2268</v>
+        <v>61.22562</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021-08-24 15:33:14</t>
+          <t>2021-08-25 15:03:36</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>52.1555</v>
+        <v>52.14199</v>
       </c>
       <c r="D99" t="n">
-        <v>61.2268</v>
+        <v>61.22549</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021-08-24 15:32:59</t>
+          <t>2021-08-25 15:03:34</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>52.1555</v>
+        <v>52.14192</v>
       </c>
       <c r="D100" t="n">
-        <v>61.2268</v>
+        <v>61.22536</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>6</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:32</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>52.14185</v>
+      </c>
+      <c r="D101" t="n">
+        <v>61.22523</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>6</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:30</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>52.14177</v>
+      </c>
+      <c r="D102" t="n">
+        <v>61.22509</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:28</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>52.14171</v>
+      </c>
+      <c r="D103" t="n">
+        <v>61.22495</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>6</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:26</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>52.14165</v>
+      </c>
+      <c r="D104" t="n">
+        <v>61.22481</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:24</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>52.1416</v>
+      </c>
+      <c r="D105" t="n">
+        <v>61.22467</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>6</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:22</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>52.14156</v>
+      </c>
+      <c r="D106" t="n">
+        <v>61.22454</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>6</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:20</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>52.14152</v>
+      </c>
+      <c r="D107" t="n">
+        <v>61.22439</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>6</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:18</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>52.14147</v>
+      </c>
+      <c r="D108" t="n">
+        <v>61.22426</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>6</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:16</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>52.14143</v>
+      </c>
+      <c r="D109" t="n">
+        <v>61.22412</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:13</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>52.14137</v>
+      </c>
+      <c r="D110" t="n">
+        <v>61.22393</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>6</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:11</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>52.14133</v>
+      </c>
+      <c r="D111" t="n">
+        <v>61.2238</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>6</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:08</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>52.14129</v>
+      </c>
+      <c r="D112" t="n">
+        <v>61.22361</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>6</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:05</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>52.14124</v>
+      </c>
+      <c r="D113" t="n">
+        <v>61.22345</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>6</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:03:02</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>52.1412</v>
+      </c>
+      <c r="D114" t="n">
+        <v>61.22331</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>6</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:58</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>52.14115</v>
+      </c>
+      <c r="D115" t="n">
+        <v>61.22314</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>6</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:53</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>52.14109</v>
+      </c>
+      <c r="D116" t="n">
+        <v>61.22299</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>6</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:49</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>52.14106</v>
+      </c>
+      <c r="D117" t="n">
+        <v>61.22289</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:45</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>52.14103</v>
+      </c>
+      <c r="D118" t="n">
+        <v>61.22282</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>6</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:37</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>52.14099</v>
+      </c>
+      <c r="D119" t="n">
+        <v>61.2227</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>6</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:36</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>52.14099</v>
+      </c>
+      <c r="D120" t="n">
+        <v>61.22267</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>6</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:34</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D121" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>6</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:33</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D122" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>6</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:28</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D123" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>6</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:19</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D124" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:09</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D125" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:02:08</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D126" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:01:39</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D127" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:01:38</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D128" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:01:09</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D129" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:01:08</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D130" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:00:38</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D131" t="n">
+        <v>61.22264</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>6</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2021-08-25 15:00:37</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>52.14098</v>
+      </c>
+      <c r="D132" t="n">
+        <v>61.22264</v>
       </c>
     </row>
   </sheetData>
